--- a/pred_ohlcv/54/2019-11-01 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 STRAT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>386</v>
+      </c>
+      <c r="C2" t="n">
+        <v>387</v>
+      </c>
+      <c r="D2" t="n">
+        <v>387</v>
+      </c>
+      <c r="E2" t="n">
+        <v>386</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
         <v>388</v>
       </c>
-      <c r="C2" t="n">
-        <v>387</v>
-      </c>
-      <c r="D2" t="n">
-        <v>388</v>
-      </c>
-      <c r="E2" t="n">
-        <v>387</v>
-      </c>
-      <c r="F2" t="n">
-        <v>964.2789</v>
-      </c>
-      <c r="G2" t="n">
-        <v>387.9333333333333</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C3" t="n">
         <v>387</v>
       </c>
       <c r="D3" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E3" t="n">
         <v>387</v>
       </c>
       <c r="F3" t="n">
-        <v>1755.5521</v>
+        <v>964.2789</v>
       </c>
       <c r="G3" t="n">
-        <v>387.8</v>
+        <v>387.9333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>387</v>
       </c>
       <c r="F4" t="n">
-        <v>1143.6393</v>
+        <v>1755.5521</v>
       </c>
       <c r="G4" t="n">
-        <v>387.6833333333333</v>
+        <v>387.8</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>387</v>
       </c>
       <c r="F5" t="n">
-        <v>4203</v>
+        <v>1143.6393</v>
       </c>
       <c r="G5" t="n">
-        <v>387.6333333333333</v>
+        <v>387.6833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>387</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>4203</v>
       </c>
       <c r="G6" t="n">
-        <v>387.5833333333333</v>
+        <v>387.6333333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>387</v>
       </c>
       <c r="F7" t="n">
-        <v>648</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>387.5333333333334</v>
+        <v>387.5833333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F8" t="n">
-        <v>5.9085</v>
+        <v>648</v>
       </c>
       <c r="G8" t="n">
-        <v>387.5</v>
+        <v>387.5333333333334</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C9" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D9" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E9" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F9" t="n">
-        <v>2112.1218</v>
+        <v>5.9085</v>
       </c>
       <c r="G9" t="n">
-        <v>387.4166666666667</v>
+        <v>387.5</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C10" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D10" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E10" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F10" t="n">
-        <v>5249.0079</v>
+        <v>2112.1218</v>
       </c>
       <c r="G10" t="n">
-        <v>387.3166666666667</v>
+        <v>387.4166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,21 +677,24 @@
         <v>386</v>
       </c>
       <c r="C11" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D11" t="n">
         <v>386</v>
       </c>
       <c r="E11" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F11" t="n">
-        <v>2.9689</v>
+        <v>5249.0079</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2333333333333</v>
+        <v>387.3166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>386</v>
       </c>
       <c r="F12" t="n">
-        <v>2.9248</v>
+        <v>2.9689</v>
       </c>
       <c r="G12" t="n">
-        <v>387.15</v>
+        <v>387.2333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C13" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D13" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E13" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F13" t="n">
-        <v>346.1752</v>
+        <v>2.9248</v>
       </c>
       <c r="G13" t="n">
-        <v>387.0166666666667</v>
+        <v>387.15</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C14" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D14" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E14" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F14" t="n">
-        <v>975.4</v>
+        <v>346.1752</v>
       </c>
       <c r="G14" t="n">
-        <v>386.8333333333333</v>
+        <v>387.0166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C15" t="n">
         <v>379</v>
       </c>
       <c r="D15" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E15" t="n">
         <v>379</v>
       </c>
       <c r="F15" t="n">
-        <v>3.9577</v>
+        <v>975.4</v>
       </c>
       <c r="G15" t="n">
-        <v>386.65</v>
+        <v>386.8333333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>379</v>
       </c>
       <c r="F16" t="n">
-        <v>105.1197</v>
+        <v>3.9577</v>
       </c>
       <c r="G16" t="n">
-        <v>386.45</v>
+        <v>386.65</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>379</v>
       </c>
       <c r="F17" t="n">
-        <v>458.999</v>
+        <v>105.1197</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2666666666667</v>
+        <v>386.45</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C18" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D18" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E18" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F18" t="n">
-        <v>15.7205</v>
+        <v>458.999</v>
       </c>
       <c r="G18" t="n">
-        <v>386.0666666666667</v>
+        <v>386.2666666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>378</v>
       </c>
       <c r="F19" t="n">
-        <v>191.4076</v>
+        <v>15.7205</v>
       </c>
       <c r="G19" t="n">
-        <v>385.8666666666667</v>
+        <v>386.0666666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C20" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D20" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E20" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F20" t="n">
-        <v>5.0234</v>
+        <v>191.4076</v>
       </c>
       <c r="G20" t="n">
-        <v>385.75</v>
+        <v>385.8666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>383</v>
       </c>
       <c r="F21" t="n">
-        <v>290.8485</v>
+        <v>5.0234</v>
       </c>
       <c r="G21" t="n">
         <v>385.75</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F22" t="n">
-        <v>100.5074</v>
+        <v>290.8485</v>
       </c>
       <c r="G22" t="n">
-        <v>385.8</v>
+        <v>385.75</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C23" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D23" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F23" t="n">
-        <v>711.4083000000001</v>
+        <v>100.5074</v>
       </c>
       <c r="G23" t="n">
-        <v>385.6666666666667</v>
+        <v>385.8</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C24" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D24" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E24" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F24" t="n">
-        <v>2982.057</v>
+        <v>711.4083000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>385.6333333333333</v>
+        <v>385.6666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>381</v>
       </c>
       <c r="C25" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D25" t="n">
         <v>381</v>
       </c>
       <c r="E25" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F25" t="n">
-        <v>1397.5194</v>
+        <v>2982.057</v>
       </c>
       <c r="G25" t="n">
-        <v>385.5166666666667</v>
+        <v>385.6333333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C26" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D26" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E26" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F26" t="n">
-        <v>6426.259</v>
+        <v>1397.5194</v>
       </c>
       <c r="G26" t="n">
-        <v>385.3833333333333</v>
+        <v>385.5166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C27" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D27" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E27" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>6426.259</v>
       </c>
       <c r="G27" t="n">
-        <v>385.2833333333334</v>
+        <v>385.3833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C28" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D28" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E28" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F28" t="n">
-        <v>141.8777</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>385.1833333333333</v>
+        <v>385.2833333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C29" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D29" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E29" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F29" t="n">
-        <v>1217.8346</v>
+        <v>141.8777</v>
       </c>
       <c r="G29" t="n">
-        <v>385.05</v>
+        <v>385.1833333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C30" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D30" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E30" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>1217.8346</v>
       </c>
       <c r="G30" t="n">
-        <v>385.0333333333334</v>
+        <v>385.05</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,16 +1254,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1180,6 +1272,9 @@
         <v>385.0333333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C32" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D32" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E32" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F32" t="n">
-        <v>334.3517</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>384.9833333333333</v>
+        <v>385.0333333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C33" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D33" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E33" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F33" t="n">
-        <v>28.7958</v>
+        <v>334.3517</v>
       </c>
       <c r="G33" t="n">
-        <v>384.9166666666667</v>
+        <v>384.9833333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>382</v>
       </c>
       <c r="C34" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D34" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E34" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F34" t="n">
-        <v>3304.8757</v>
+        <v>28.7958</v>
       </c>
       <c r="G34" t="n">
-        <v>384.85</v>
+        <v>384.9166666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C35" t="n">
         <v>384</v>
@@ -1275,15 +1379,18 @@
         <v>384</v>
       </c>
       <c r="E35" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F35" t="n">
-        <v>141.8731</v>
+        <v>3304.8757</v>
       </c>
       <c r="G35" t="n">
-        <v>384.75</v>
+        <v>384.85</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C36" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D36" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E36" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>141.8731</v>
       </c>
       <c r="G36" t="n">
-        <v>384.7166666666666</v>
+        <v>384.75</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D37" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E37" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F37" t="n">
-        <v>438.8892</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>384.7333333333333</v>
+        <v>384.7166666666666</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C38" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D38" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E38" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F38" t="n">
-        <v>719.7364</v>
+        <v>438.8892</v>
       </c>
       <c r="G38" t="n">
-        <v>384.6666666666667</v>
+        <v>384.7333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C39" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D39" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E39" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>719.7364</v>
       </c>
       <c r="G39" t="n">
-        <v>384.6333333333333</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C40" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D40" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E40" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F40" t="n">
-        <v>2649.652</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>384.6666666666667</v>
+        <v>384.6333333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D41" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E41" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2649.652</v>
       </c>
       <c r="G41" t="n">
-        <v>384.7666666666667</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C42" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D42" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E42" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F42" t="n">
-        <v>79.9956</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>384.7333333333333</v>
+        <v>384.7666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>385</v>
       </c>
       <c r="F43" t="n">
-        <v>78.9956</v>
+        <v>79.9956</v>
       </c>
       <c r="G43" t="n">
-        <v>384.7166666666666</v>
+        <v>384.7333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D44" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E44" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F44" t="n">
-        <v>81.1198</v>
+        <v>78.9956</v>
       </c>
       <c r="G44" t="n">
-        <v>384.6833333333333</v>
+        <v>384.7166666666666</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>386</v>
       </c>
       <c r="F45" t="n">
-        <v>111</v>
+        <v>81.1198</v>
       </c>
       <c r="G45" t="n">
-        <v>384.65</v>
+        <v>384.6833333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>386</v>
       </c>
       <c r="F46" t="n">
-        <v>190.7905</v>
+        <v>111</v>
       </c>
       <c r="G46" t="n">
-        <v>384.6166666666667</v>
+        <v>384.65</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>386</v>
       </c>
       <c r="F47" t="n">
-        <v>202.0446</v>
+        <v>190.7905</v>
       </c>
       <c r="G47" t="n">
-        <v>384.55</v>
+        <v>384.6166666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D48" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E48" t="n">
         <v>386</v>
       </c>
       <c r="F48" t="n">
-        <v>3190.3222</v>
+        <v>202.0446</v>
       </c>
       <c r="G48" t="n">
-        <v>384.5666666666667</v>
+        <v>384.55</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C49" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D49" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E49" t="n">
         <v>386</v>
       </c>
       <c r="F49" t="n">
-        <v>969.4112</v>
+        <v>3190.3222</v>
       </c>
       <c r="G49" t="n">
         <v>384.5666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>386</v>
       </c>
       <c r="F50" t="n">
-        <v>1719.1588</v>
+        <v>969.4112</v>
       </c>
       <c r="G50" t="n">
         <v>384.5666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C51" t="n">
         <v>386</v>
       </c>
       <c r="D51" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E51" t="n">
         <v>386</v>
       </c>
       <c r="F51" t="n">
-        <v>1231.327</v>
+        <v>1719.1588</v>
       </c>
       <c r="G51" t="n">
         <v>384.5666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>386</v>
       </c>
       <c r="F52" t="n">
-        <v>192.1819</v>
+        <v>1231.327</v>
       </c>
       <c r="G52" t="n">
-        <v>384.55</v>
+        <v>384.5666666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>386</v>
       </c>
       <c r="F53" t="n">
-        <v>871.0154</v>
+        <v>192.1819</v>
       </c>
       <c r="G53" t="n">
-        <v>384.5166666666667</v>
+        <v>384.55</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C54" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D54" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E54" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F54" t="n">
-        <v>183.0677</v>
+        <v>871.0154</v>
       </c>
       <c r="G54" t="n">
-        <v>384.45</v>
+        <v>384.5166666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>385</v>
       </c>
       <c r="F55" t="n">
-        <v>521.0388</v>
+        <v>183.0677</v>
       </c>
       <c r="G55" t="n">
-        <v>384.4333333333333</v>
+        <v>384.45</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C56" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D56" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E56" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F56" t="n">
-        <v>1281.3542</v>
+        <v>521.0388</v>
       </c>
       <c r="G56" t="n">
-        <v>384.4</v>
+        <v>384.4333333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>384</v>
       </c>
       <c r="F57" t="n">
-        <v>2206.7819</v>
+        <v>1281.3542</v>
       </c>
       <c r="G57" t="n">
-        <v>384.3166666666667</v>
+        <v>384.4</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>384</v>
       </c>
       <c r="F58" t="n">
-        <v>298.6472</v>
+        <v>2206.7819</v>
       </c>
       <c r="G58" t="n">
-        <v>384.2333333333333</v>
+        <v>384.3166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>384</v>
       </c>
       <c r="F59" t="n">
-        <v>559.7453</v>
+        <v>298.6472</v>
       </c>
       <c r="G59" t="n">
-        <v>384.1333333333333</v>
+        <v>384.2333333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C60" t="n">
         <v>384</v>
       </c>
       <c r="D60" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E60" t="n">
         <v>384</v>
       </c>
       <c r="F60" t="n">
-        <v>7437.4468</v>
+        <v>559.7453</v>
       </c>
       <c r="G60" t="n">
-        <v>384.1166666666667</v>
+        <v>384.1333333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C61" t="n">
         <v>384</v>
       </c>
       <c r="D61" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E61" t="n">
         <v>384</v>
       </c>
       <c r="F61" t="n">
-        <v>77</v>
+        <v>7437.4468</v>
       </c>
       <c r="G61" t="n">
-        <v>384.0666666666667</v>
+        <v>384.1166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C62" t="n">
         <v>384</v>
       </c>
       <c r="D62" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E62" t="n">
         <v>384</v>
       </c>
       <c r="F62" t="n">
-        <v>1238.6304</v>
+        <v>77</v>
       </c>
       <c r="G62" t="n">
-        <v>384.0166666666667</v>
+        <v>384.0666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C63" t="n">
         <v>384</v>
       </c>
       <c r="D63" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E63" t="n">
         <v>384</v>
       </c>
       <c r="F63" t="n">
-        <v>2719.6565</v>
+        <v>1238.6304</v>
       </c>
       <c r="G63" t="n">
-        <v>383.9666666666666</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C64" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D64" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E64" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>2719.6565</v>
       </c>
       <c r="G64" t="n">
-        <v>383.8833333333333</v>
+        <v>383.9666666666666</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>382</v>
       </c>
       <c r="C65" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D65" t="n">
         <v>382</v>
       </c>
       <c r="E65" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F65" t="n">
-        <v>553.5099</v>
+        <v>250</v>
       </c>
       <c r="G65" t="n">
-        <v>383.7833333333334</v>
+        <v>383.8833333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C66" t="n">
         <v>381</v>
       </c>
       <c r="D66" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E66" t="n">
         <v>381</v>
       </c>
       <c r="F66" t="n">
-        <v>791.5972</v>
+        <v>553.5099</v>
       </c>
       <c r="G66" t="n">
-        <v>383.6833333333333</v>
+        <v>383.7833333333334</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>381</v>
       </c>
       <c r="F67" t="n">
-        <v>758.5996</v>
+        <v>791.5972</v>
       </c>
       <c r="G67" t="n">
-        <v>383.5833333333333</v>
+        <v>383.6833333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>381</v>
       </c>
       <c r="F68" t="n">
-        <v>2137.0784</v>
+        <v>758.5996</v>
       </c>
       <c r="G68" t="n">
-        <v>383.4666666666666</v>
+        <v>383.5833333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>381</v>
       </c>
       <c r="C69" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D69" t="n">
         <v>381</v>
       </c>
       <c r="E69" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F69" t="n">
-        <v>1483.6801</v>
+        <v>2137.0784</v>
       </c>
       <c r="G69" t="n">
-        <v>383.3666666666667</v>
+        <v>383.4666666666666</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C70" t="n">
         <v>380</v>
       </c>
       <c r="D70" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E70" t="n">
         <v>380</v>
       </c>
       <c r="F70" t="n">
-        <v>172</v>
+        <v>1483.6801</v>
       </c>
       <c r="G70" t="n">
-        <v>383.2833333333334</v>
+        <v>383.3666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>380</v>
       </c>
       <c r="C71" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D71" t="n">
         <v>380</v>
       </c>
       <c r="E71" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F71" t="n">
-        <v>47.88</v>
+        <v>172</v>
       </c>
       <c r="G71" t="n">
-        <v>383.1666666666667</v>
+        <v>383.2833333333334</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C72" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D72" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E72" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F72" t="n">
-        <v>3959.5187</v>
+        <v>47.88</v>
       </c>
       <c r="G72" t="n">
-        <v>383.0333333333334</v>
+        <v>383.1666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>379</v>
       </c>
       <c r="C73" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D73" t="n">
         <v>379</v>
       </c>
       <c r="E73" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F73" t="n">
-        <v>194.6791</v>
+        <v>3959.5187</v>
       </c>
       <c r="G73" t="n">
-        <v>382.9833333333333</v>
+        <v>383.0333333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>379</v>
       </c>
       <c r="C74" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D74" t="n">
         <v>379</v>
       </c>
       <c r="E74" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F74" t="n">
-        <v>4326.599</v>
+        <v>194.6791</v>
       </c>
       <c r="G74" t="n">
-        <v>382.9333333333333</v>
+        <v>382.9833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>379</v>
+      </c>
+      <c r="C75" t="n">
         <v>376</v>
       </c>
-      <c r="C75" t="n">
-        <v>374</v>
-      </c>
       <c r="D75" t="n">
+        <v>379</v>
+      </c>
+      <c r="E75" t="n">
         <v>376</v>
       </c>
-      <c r="E75" t="n">
-        <v>374</v>
-      </c>
       <c r="F75" t="n">
-        <v>7614.5152</v>
+        <v>4326.599</v>
       </c>
       <c r="G75" t="n">
-        <v>382.85</v>
+        <v>382.9333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,10 +2559,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>376</v>
+      </c>
+      <c r="C76" t="n">
         <v>374</v>
-      </c>
-      <c r="C76" t="n">
-        <v>376</v>
       </c>
       <c r="D76" t="n">
         <v>376</v>
@@ -2344,12 +2571,15 @@
         <v>374</v>
       </c>
       <c r="F76" t="n">
-        <v>2571.4341</v>
+        <v>7614.5152</v>
       </c>
       <c r="G76" t="n">
-        <v>382.8</v>
+        <v>382.85</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C77" t="n">
         <v>376</v>
@@ -2367,15 +2597,18 @@
         <v>376</v>
       </c>
       <c r="E77" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F77" t="n">
-        <v>5095.0063</v>
+        <v>2571.4341</v>
       </c>
       <c r="G77" t="n">
-        <v>382.75</v>
+        <v>382.8</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C78" t="n">
         <v>376</v>
@@ -2393,15 +2626,18 @@
         <v>376</v>
       </c>
       <c r="E78" t="n">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F78" t="n">
-        <v>119.2562</v>
+        <v>5095.0063</v>
       </c>
       <c r="G78" t="n">
-        <v>382.7166666666666</v>
+        <v>382.75</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>376</v>
       </c>
       <c r="F79" t="n">
-        <v>850</v>
+        <v>119.2562</v>
       </c>
       <c r="G79" t="n">
-        <v>382.6833333333333</v>
+        <v>382.7166666666666</v>
       </c>
       <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C80" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D80" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E80" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F80" t="n">
-        <v>219</v>
+        <v>850</v>
       </c>
       <c r="G80" t="n">
-        <v>382.55</v>
+        <v>382.6833333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C81" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D81" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E81" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F81" t="n">
-        <v>4618.2676</v>
+        <v>219</v>
       </c>
       <c r="G81" t="n">
-        <v>382.35</v>
+        <v>382.55</v>
       </c>
       <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C82" t="n">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D82" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E82" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F82" t="n">
-        <v>602.7495</v>
+        <v>4618.2676</v>
       </c>
       <c r="G82" t="n">
-        <v>382.2666666666667</v>
+        <v>382.35</v>
       </c>
       <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C83" t="n">
         <v>376</v>
@@ -2526,12 +2774,15 @@
         <v>374</v>
       </c>
       <c r="F83" t="n">
-        <v>435.2397</v>
+        <v>602.7495</v>
       </c>
       <c r="G83" t="n">
-        <v>382.1666666666667</v>
+        <v>382.2666666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C84" t="n">
         <v>376</v>
@@ -2549,15 +2800,18 @@
         <v>376</v>
       </c>
       <c r="E84" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>435.2397</v>
       </c>
       <c r="G84" t="n">
-        <v>382.0833333333333</v>
+        <v>382.1666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>376</v>
       </c>
       <c r="F85" t="n">
-        <v>1340.0994</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>382.0166666666667</v>
+        <v>382.0833333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C86" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D86" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E86" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F86" t="n">
-        <v>1051.5068</v>
+        <v>1340.0994</v>
       </c>
       <c r="G86" t="n">
         <v>382.0166666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C87" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D87" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E87" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>1051.5068</v>
       </c>
       <c r="G87" t="n">
-        <v>381.9666666666666</v>
+        <v>382.0166666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C88" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D88" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E88" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F88" t="n">
-        <v>5497.9298</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>381.8666666666667</v>
+        <v>381.9666666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C89" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D89" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E89" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F89" t="n">
-        <v>185.3703</v>
+        <v>5497.9298</v>
       </c>
       <c r="G89" t="n">
-        <v>381.7833333333334</v>
+        <v>381.8666666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C90" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D90" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E90" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F90" t="n">
-        <v>845.3329</v>
+        <v>185.3703</v>
       </c>
       <c r="G90" t="n">
-        <v>381.7166666666666</v>
+        <v>381.7833333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>379</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0001</v>
+        <v>845.3329</v>
       </c>
       <c r="G91" t="n">
-        <v>381.6333333333333</v>
+        <v>381.7166666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C92" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E92" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F92" t="n">
-        <v>175.3755</v>
+        <v>0.0001</v>
       </c>
       <c r="G92" t="n">
-        <v>381.5833333333333</v>
+        <v>381.6333333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C93" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D93" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E93" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F93" t="n">
-        <v>144.0144</v>
+        <v>175.3755</v>
       </c>
       <c r="G93" t="n">
-        <v>381.5333333333334</v>
+        <v>381.5833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>379</v>
       </c>
       <c r="F94" t="n">
-        <v>15.26</v>
+        <v>144.0144</v>
       </c>
       <c r="G94" t="n">
-        <v>381.45</v>
+        <v>381.5333333333334</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C95" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D95" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E95" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>15.26</v>
       </c>
       <c r="G95" t="n">
-        <v>381.3833333333333</v>
+        <v>381.45</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C96" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D96" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E96" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F96" t="n">
-        <v>1517.4255</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>381.35</v>
+        <v>381.3833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C97" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D97" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E97" t="n">
         <v>381</v>
       </c>
       <c r="F97" t="n">
-        <v>2143</v>
+        <v>1517.4255</v>
       </c>
       <c r="G97" t="n">
-        <v>381.2666666666667</v>
+        <v>381.35</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C98" t="n">
         <v>381</v>
       </c>
       <c r="D98" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E98" t="n">
         <v>381</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>2143</v>
       </c>
       <c r="G98" t="n">
-        <v>381.2166666666666</v>
+        <v>381.2666666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C99" t="n">
         <v>381</v>
       </c>
       <c r="D99" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E99" t="n">
         <v>381</v>
       </c>
       <c r="F99" t="n">
-        <v>3720.2313</v>
+        <v>5</v>
       </c>
       <c r="G99" t="n">
-        <v>381.1166666666667</v>
+        <v>381.2166666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C100" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D100" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E100" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F100" t="n">
-        <v>104.8</v>
+        <v>3720.2313</v>
       </c>
       <c r="G100" t="n">
-        <v>381.0166666666667</v>
+        <v>381.1166666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C101" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D101" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E101" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F101" t="n">
-        <v>152.5647</v>
+        <v>104.8</v>
       </c>
       <c r="G101" t="n">
-        <v>380.9666666666666</v>
+        <v>381.0166666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>386</v>
       </c>
       <c r="C102" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D102" t="n">
         <v>386</v>
       </c>
       <c r="E102" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F102" t="n">
-        <v>1125.6958</v>
+        <v>152.5647</v>
       </c>
       <c r="G102" t="n">
-        <v>380.9</v>
+        <v>380.9666666666666</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C103" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D103" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E103" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>1125.6958</v>
       </c>
       <c r="G103" t="n">
-        <v>380.9333333333333</v>
+        <v>380.9</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C104" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D104" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E104" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F104" t="n">
-        <v>94.98690000000001</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>380.8833333333333</v>
+        <v>380.9333333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,25 +3400,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C105" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D105" t="n">
         <v>383</v>
       </c>
       <c r="E105" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F105" t="n">
-        <v>1495.4467</v>
+        <v>94.98690000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>380.8166666666667</v>
+        <v>380.8833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3118,18 +3435,21 @@
         <v>382</v>
       </c>
       <c r="D106" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E106" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F106" t="n">
-        <v>181.876</v>
+        <v>1495.4467</v>
       </c>
       <c r="G106" t="n">
-        <v>380.75</v>
+        <v>380.8166666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>382</v>
       </c>
       <c r="F107" t="n">
-        <v>1639.2004</v>
+        <v>181.876</v>
       </c>
       <c r="G107" t="n">
-        <v>380.6833333333333</v>
+        <v>380.75</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>382</v>
       </c>
       <c r="F108" t="n">
-        <v>1451.0769</v>
+        <v>1639.2004</v>
       </c>
       <c r="G108" t="n">
-        <v>380.6</v>
+        <v>380.6833333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>382</v>
       </c>
       <c r="F109" t="n">
-        <v>87.9999</v>
+        <v>1451.0769</v>
       </c>
       <c r="G109" t="n">
-        <v>380.5333333333334</v>
+        <v>380.6</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C110" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D110" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E110" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F110" t="n">
-        <v>629.9861</v>
+        <v>87.9999</v>
       </c>
       <c r="G110" t="n">
-        <v>380.5</v>
+        <v>380.5333333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C111" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D111" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E111" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>629.9861</v>
       </c>
       <c r="G111" t="n">
-        <v>380.4833333333333</v>
+        <v>380.5</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>385</v>
       </c>
       <c r="C112" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D112" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E112" t="n">
         <v>385</v>
       </c>
       <c r="F112" t="n">
-        <v>904.0697</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>380.5</v>
+        <v>380.4833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C113" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D113" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E113" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F113" t="n">
-        <v>6628.5442</v>
+        <v>904.0697</v>
       </c>
       <c r="G113" t="n">
-        <v>380.4666666666666</v>
+        <v>380.5</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>387</v>
       </c>
       <c r="C114" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D114" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E114" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F114" t="n">
-        <v>473</v>
+        <v>6628.5442</v>
       </c>
       <c r="G114" t="n">
-        <v>380.4833333333333</v>
+        <v>380.4666666666666</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C115" t="n">
         <v>386</v>
       </c>
       <c r="D115" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E115" t="n">
         <v>386</v>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>473</v>
       </c>
       <c r="G115" t="n">
-        <v>380.5</v>
+        <v>380.4833333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>386</v>
       </c>
       <c r="C116" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D116" t="n">
         <v>386</v>
       </c>
       <c r="E116" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>380.5166666666667</v>
+        <v>380.5</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C117" t="n">
         <v>385</v>
       </c>
       <c r="D117" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E117" t="n">
         <v>385</v>
       </c>
       <c r="F117" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G117" t="n">
-        <v>380.5333333333334</v>
+        <v>380.5166666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C118" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D118" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E118" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>380.6166666666667</v>
+        <v>380.5333333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C119" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D119" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E119" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F119" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>380.6166666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>384</v>
       </c>
       <c r="F120" t="n">
-        <v>143.6356</v>
+        <v>50</v>
       </c>
       <c r="G120" t="n">
         <v>380.6166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>384</v>
       </c>
       <c r="F121" t="n">
-        <v>3073.3927</v>
+        <v>143.6356</v>
       </c>
       <c r="G121" t="n">
         <v>380.6166666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>3073.3927</v>
       </c>
       <c r="G122" t="n">
-        <v>380.7</v>
+        <v>380.6166666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C123" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D123" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E123" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F123" t="n">
-        <v>741.0595</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>380.7</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>384</v>
       </c>
       <c r="F124" t="n">
-        <v>772.645</v>
+        <v>741.0595</v>
       </c>
       <c r="G124" t="n">
-        <v>380.7333333333333</v>
+        <v>380.7</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,21 +3983,24 @@
         <v>384</v>
       </c>
       <c r="C125" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D125" t="n">
         <v>384</v>
       </c>
       <c r="E125" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F125" t="n">
-        <v>584</v>
+        <v>772.645</v>
       </c>
       <c r="G125" t="n">
         <v>380.7333333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C126" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D126" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E126" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>584</v>
       </c>
       <c r="G126" t="n">
-        <v>380.85</v>
+        <v>380.7333333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C127" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D127" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E127" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F127" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>380.8833333333333</v>
+        <v>380.85</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>383</v>
       </c>
       <c r="F128" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G128" t="n">
-        <v>380.9166666666667</v>
+        <v>380.8833333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C129" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D129" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E129" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="G129" t="n">
-        <v>381.0333333333334</v>
+        <v>380.9166666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C130" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D130" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E130" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F130" t="n">
-        <v>361.324</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>381.0833333333333</v>
+        <v>381.0333333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C131" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D131" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E131" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F131" t="n">
-        <v>677.7653</v>
+        <v>361.324</v>
       </c>
       <c r="G131" t="n">
-        <v>381.1333333333333</v>
+        <v>381.0833333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>382</v>
       </c>
       <c r="F132" t="n">
-        <v>901.8095</v>
+        <v>677.7653</v>
       </c>
       <c r="G132" t="n">
-        <v>381.2</v>
+        <v>381.1333333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,21 +4215,24 @@
         <v>382</v>
       </c>
       <c r="C133" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D133" t="n">
         <v>382</v>
       </c>
       <c r="E133" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F133" t="n">
-        <v>11819.4389</v>
+        <v>901.8095</v>
       </c>
       <c r="G133" t="n">
         <v>381.2</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C134" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D134" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E134" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F134" t="n">
-        <v>3067.324</v>
+        <v>11819.4389</v>
       </c>
       <c r="G134" t="n">
-        <v>381.4166666666667</v>
+        <v>381.2</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3869,21 +4273,24 @@
         <v>385</v>
       </c>
       <c r="C135" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D135" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E135" t="n">
         <v>385</v>
       </c>
       <c r="F135" t="n">
-        <v>102.2219</v>
+        <v>3067.324</v>
       </c>
       <c r="G135" t="n">
-        <v>381.6</v>
+        <v>381.4166666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C136" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D136" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E136" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F136" t="n">
-        <v>771.1305123</v>
+        <v>102.2219</v>
       </c>
       <c r="G136" t="n">
-        <v>381.8333333333333</v>
+        <v>381.6</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,7 +4328,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C137" t="n">
         <v>390</v>
@@ -3927,15 +4337,18 @@
         <v>390</v>
       </c>
       <c r="E137" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F137" t="n">
-        <v>513.07923076</v>
+        <v>771.1305123</v>
       </c>
       <c r="G137" t="n">
-        <v>382.0666666666667</v>
+        <v>381.8333333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C138" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D138" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E138" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F138" t="n">
-        <v>93.8383</v>
+        <v>513.07923076</v>
       </c>
       <c r="G138" t="n">
-        <v>382.2166666666666</v>
+        <v>382.0666666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>385</v>
       </c>
       <c r="F139" t="n">
-        <v>121</v>
+        <v>93.8383</v>
       </c>
       <c r="G139" t="n">
-        <v>382.3666666666667</v>
+        <v>382.2166666666666</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C140" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D140" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E140" t="n">
         <v>385</v>
       </c>
       <c r="F140" t="n">
-        <v>362.1</v>
+        <v>121</v>
       </c>
       <c r="G140" t="n">
-        <v>382.55</v>
+        <v>382.3666666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4031,15 +4453,18 @@
         <v>386</v>
       </c>
       <c r="E141" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F141" t="n">
-        <v>172</v>
+        <v>362.1</v>
       </c>
       <c r="G141" t="n">
-        <v>382.8</v>
+        <v>382.55</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C142" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D142" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E142" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="G142" t="n">
-        <v>383.0166666666667</v>
+        <v>382.8</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C143" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D143" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E143" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F143" t="n">
-        <v>113.1531</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>383.1666666666667</v>
+        <v>383.0166666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C144" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D144" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E144" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F144" t="n">
-        <v>175.6196</v>
+        <v>113.1531</v>
       </c>
       <c r="G144" t="n">
-        <v>383.3333333333333</v>
+        <v>383.1666666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C145" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D145" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E145" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F145" t="n">
-        <v>886.1368</v>
+        <v>175.6196</v>
       </c>
       <c r="G145" t="n">
-        <v>383.4833333333333</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>385</v>
       </c>
       <c r="F146" t="n">
-        <v>39.0873</v>
+        <v>886.1368</v>
       </c>
       <c r="G146" t="n">
-        <v>383.5833333333333</v>
+        <v>383.4833333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>385</v>
       </c>
       <c r="F147" t="n">
-        <v>87.9466</v>
+        <v>39.0873</v>
       </c>
       <c r="G147" t="n">
-        <v>383.65</v>
+        <v>383.5833333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>385</v>
       </c>
       <c r="F148" t="n">
-        <v>665</v>
+        <v>87.9466</v>
       </c>
       <c r="G148" t="n">
-        <v>383.85</v>
+        <v>383.65</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>385</v>
       </c>
       <c r="F149" t="n">
-        <v>237.9599</v>
+        <v>665</v>
       </c>
       <c r="G149" t="n">
-        <v>384</v>
+        <v>383.85</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>385</v>
       </c>
       <c r="F150" t="n">
-        <v>1827.0045</v>
+        <v>237.9599</v>
       </c>
       <c r="G150" t="n">
-        <v>384.1</v>
+        <v>384</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C151" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D151" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E151" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F151" t="n">
-        <v>1813.8379</v>
+        <v>1827.0045</v>
       </c>
       <c r="G151" t="n">
-        <v>384.1833333333333</v>
+        <v>384.1</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4311,21 +4766,24 @@
         <v>384</v>
       </c>
       <c r="C152" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D152" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E152" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>1813.8379</v>
       </c>
       <c r="G152" t="n">
-        <v>384.2666666666667</v>
+        <v>384.1833333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4792,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C153" t="n">
         <v>385</v>
@@ -4343,15 +4801,18 @@
         <v>385</v>
       </c>
       <c r="E153" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F153" t="n">
-        <v>190.4763</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>384.3666666666667</v>
+        <v>384.2666666666667</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,532 +4833,15 @@
         <v>385</v>
       </c>
       <c r="F154" t="n">
-        <v>779.2207792200001</v>
+        <v>190.4763</v>
       </c>
       <c r="G154" t="n">
-        <v>384.4666666666666</v>
+        <v>384.3666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>385</v>
-      </c>
-      <c r="C155" t="n">
-        <v>380</v>
-      </c>
-      <c r="D155" t="n">
-        <v>385</v>
-      </c>
-      <c r="E155" t="n">
-        <v>380</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2</v>
-      </c>
-      <c r="G155" t="n">
-        <v>384.4666666666666</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>380</v>
-      </c>
-      <c r="C156" t="n">
-        <v>380</v>
-      </c>
-      <c r="D156" t="n">
-        <v>380</v>
-      </c>
-      <c r="E156" t="n">
-        <v>380</v>
-      </c>
-      <c r="F156" t="n">
-        <v>9</v>
-      </c>
-      <c r="G156" t="n">
-        <v>384.4166666666667</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>380</v>
-      </c>
-      <c r="C157" t="n">
-        <v>379</v>
-      </c>
-      <c r="D157" t="n">
-        <v>380</v>
-      </c>
-      <c r="E157" t="n">
-        <v>379</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2244.3892</v>
-      </c>
-      <c r="G157" t="n">
-        <v>384.3833333333333</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>384</v>
-      </c>
-      <c r="C158" t="n">
-        <v>384</v>
-      </c>
-      <c r="D158" t="n">
-        <v>384</v>
-      </c>
-      <c r="E158" t="n">
-        <v>384</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" t="n">
-        <v>384.4333333333333</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>380</v>
-      </c>
-      <c r="C159" t="n">
-        <v>380</v>
-      </c>
-      <c r="D159" t="n">
-        <v>380</v>
-      </c>
-      <c r="E159" t="n">
-        <v>380</v>
-      </c>
-      <c r="F159" t="n">
-        <v>184.8517</v>
-      </c>
-      <c r="G159" t="n">
-        <v>384.4166666666667</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>380</v>
-      </c>
-      <c r="C160" t="n">
-        <v>380</v>
-      </c>
-      <c r="D160" t="n">
-        <v>380</v>
-      </c>
-      <c r="E160" t="n">
-        <v>380</v>
-      </c>
-      <c r="F160" t="n">
-        <v>77.7587</v>
-      </c>
-      <c r="G160" t="n">
-        <v>384.3833333333333</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>380</v>
-      </c>
-      <c r="C161" t="n">
-        <v>379</v>
-      </c>
-      <c r="D161" t="n">
-        <v>380</v>
-      </c>
-      <c r="E161" t="n">
-        <v>379</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2085.1828</v>
-      </c>
-      <c r="G161" t="n">
-        <v>384.2666666666667</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>380</v>
-      </c>
-      <c r="C162" t="n">
-        <v>380</v>
-      </c>
-      <c r="D162" t="n">
-        <v>380</v>
-      </c>
-      <c r="E162" t="n">
-        <v>380</v>
-      </c>
-      <c r="F162" t="n">
-        <v>252.6449</v>
-      </c>
-      <c r="G162" t="n">
-        <v>384.25</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>383</v>
-      </c>
-      <c r="C163" t="n">
-        <v>383</v>
-      </c>
-      <c r="D163" t="n">
-        <v>383</v>
-      </c>
-      <c r="E163" t="n">
-        <v>383</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" t="n">
-        <v>384.1833333333333</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>383</v>
-      </c>
-      <c r="C164" t="n">
-        <v>383</v>
-      </c>
-      <c r="D164" t="n">
-        <v>383</v>
-      </c>
-      <c r="E164" t="n">
-        <v>383</v>
-      </c>
-      <c r="F164" t="n">
-        <v>3</v>
-      </c>
-      <c r="G164" t="n">
-        <v>384.1833333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>384</v>
-      </c>
-      <c r="C165" t="n">
-        <v>381</v>
-      </c>
-      <c r="D165" t="n">
-        <v>384</v>
-      </c>
-      <c r="E165" t="n">
-        <v>381</v>
-      </c>
-      <c r="F165" t="n">
-        <v>119</v>
-      </c>
-      <c r="G165" t="n">
-        <v>384.1666666666667</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>381</v>
-      </c>
-      <c r="C166" t="n">
-        <v>381</v>
-      </c>
-      <c r="D166" t="n">
-        <v>382</v>
-      </c>
-      <c r="E166" t="n">
-        <v>381</v>
-      </c>
-      <c r="F166" t="n">
-        <v>544.3150000000001</v>
-      </c>
-      <c r="G166" t="n">
-        <v>384.15</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>381</v>
-      </c>
-      <c r="C167" t="n">
-        <v>381</v>
-      </c>
-      <c r="D167" t="n">
-        <v>381</v>
-      </c>
-      <c r="E167" t="n">
-        <v>381</v>
-      </c>
-      <c r="F167" t="n">
-        <v>82.6887</v>
-      </c>
-      <c r="G167" t="n">
-        <v>384.1333333333333</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>384</v>
-      </c>
-      <c r="C168" t="n">
-        <v>394</v>
-      </c>
-      <c r="D168" t="n">
-        <v>395</v>
-      </c>
-      <c r="E168" t="n">
-        <v>382</v>
-      </c>
-      <c r="F168" t="n">
-        <v>5940.7035</v>
-      </c>
-      <c r="G168" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>382</v>
-      </c>
-      <c r="C169" t="n">
-        <v>382</v>
-      </c>
-      <c r="D169" t="n">
-        <v>382</v>
-      </c>
-      <c r="E169" t="n">
-        <v>381</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1392.8728</v>
-      </c>
-      <c r="G169" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>384</v>
-      </c>
-      <c r="C170" t="n">
-        <v>384</v>
-      </c>
-      <c r="D170" t="n">
-        <v>384</v>
-      </c>
-      <c r="E170" t="n">
-        <v>384</v>
-      </c>
-      <c r="F170" t="n">
-        <v>26.178</v>
-      </c>
-      <c r="G170" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>382</v>
-      </c>
-      <c r="C171" t="n">
-        <v>382</v>
-      </c>
-      <c r="D171" t="n">
-        <v>382</v>
-      </c>
-      <c r="E171" t="n">
-        <v>382</v>
-      </c>
-      <c r="F171" t="n">
-        <v>571.8887999999999</v>
-      </c>
-      <c r="G171" t="n">
-        <v>384.2833333333334</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>383</v>
-      </c>
-      <c r="C172" t="n">
-        <v>383</v>
-      </c>
-      <c r="D172" t="n">
-        <v>383</v>
-      </c>
-      <c r="E172" t="n">
-        <v>383</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1866.1504</v>
-      </c>
-      <c r="G172" t="n">
-        <v>384.2166666666666</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>383</v>
-      </c>
-      <c r="C173" t="n">
-        <v>383</v>
-      </c>
-      <c r="D173" t="n">
-        <v>383</v>
-      </c>
-      <c r="E173" t="n">
-        <v>383</v>
-      </c>
-      <c r="F173" t="n">
-        <v>79.16079999999999</v>
-      </c>
-      <c r="G173" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>383</v>
-      </c>
-      <c r="C174" t="n">
-        <v>383</v>
-      </c>
-      <c r="D174" t="n">
-        <v>383</v>
-      </c>
-      <c r="E174" t="n">
-        <v>383</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1770.083</v>
-      </c>
-      <c r="G174" t="n">
-        <v>384.15</v>
-      </c>
-      <c r="H174" t="n">
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
